--- a/test_契約管理/已完成/test_契約管理_契約者一覧.xlsx
+++ b/test_契約管理/已完成/test_契約管理_契約者一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="13650" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13414" uniqueCount="1354">
   <si>
     <t>SQL</t>
   </si>
@@ -1757,7 +1757,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>勤務先備考</t>
     </r>
@@ -4114,15 +4114,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4142,7 +4138,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4155,7 +4151,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4174,38 +4169,34 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4219,34 +4210,34 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4259,159 +4250,37 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4426,19 +4295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4450,7 +4319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4474,19 +4343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4498,7 +4367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4510,180 +4379,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4734,261 +4435,22 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5011,7 +4473,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5036,12 +4498,12 @@
     <xf numFmtId="49" fontId="9" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5079,7 +4541,7 @@
     <xf numFmtId="49" fontId="17" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5106,67 +4568,34 @@
     <xf numFmtId="14" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="標準 26" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="標準 26" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="106">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5181,13 +4610,727 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF7FD9D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF99"/>
-      <color rgb="00FFFFCC"/>
-      <color rgb="00F7FD9D"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFF7FD9D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5199,7 +5342,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -5213,7 +5356,7 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1025" name="Host Control  1"/>
         <xdr:cNvSpPr/>
@@ -5247,7 +5390,7 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Host Control  1"/>
         <xdr:cNvSpPr/>
@@ -5552,16 +5695,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:IE367"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="L348" sqref="L348"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5586,7 +5729,7 @@
     <col min="42" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +5745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -5615,7 +5758,7 @@
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -5624,7 +5767,7 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:2">
+    <row r="6" spans="1:7" customFormat="1" ht="14.25">
       <c r="A6" s="29" t="s">
         <v>0</v>
       </c>
@@ -5632,7 +5775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:2">
+    <row r="7" spans="1:7" customFormat="1" ht="14.25">
       <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
@@ -5640,7 +5783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:7" customFormat="1" ht="14.25">
       <c r="A8" s="29" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:7" customFormat="1" ht="14.25">
       <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
@@ -5656,7 +5799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:7" customFormat="1" ht="14.25">
       <c r="A10" s="29" t="s">
         <v>0</v>
       </c>
@@ -5664,11 +5807,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="1:2">
+    <row r="11" spans="1:7" customFormat="1" ht="13.5">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="12" spans="1:7" customFormat="1" ht="14.25">
       <c r="A12" s="29" t="s">
         <v>0</v>
       </c>
@@ -5676,7 +5819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:2">
+    <row r="13" spans="1:7" customFormat="1" ht="14.25">
       <c r="A13" s="29" t="s">
         <v>0</v>
       </c>
@@ -5684,10 +5827,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="13.5" spans="2:2">
+    <row r="14" spans="1:7" customFormat="1" ht="13.5">
       <c r="B14" s="25"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:2">
+    <row r="15" spans="1:7" customFormat="1" ht="14.25">
       <c r="A15" s="29" t="s">
         <v>0</v>
       </c>
@@ -5695,7 +5838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:7" customFormat="1" ht="14.25">
       <c r="A16" s="29" t="s">
         <v>0</v>
       </c>
@@ -5703,7 +5846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2" customFormat="1" ht="14.25">
       <c r="A17" s="29" t="s">
         <v>0</v>
       </c>
@@ -5711,7 +5854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2" customFormat="1" ht="14.25">
       <c r="A18" s="29" t="s">
         <v>0</v>
       </c>
@@ -5719,7 +5862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:2">
+    <row r="19" spans="1:2" customFormat="1" ht="14.25">
       <c r="A19" s="29" t="s">
         <v>0</v>
       </c>
@@ -5727,7 +5870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2" customFormat="1" ht="14.25">
       <c r="A20" s="29" t="s">
         <v>0</v>
       </c>
@@ -5735,8 +5878,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="13.5"/>
-    <row r="22" customFormat="1" ht="14.25" spans="1:2">
+    <row r="21" spans="1:2" customFormat="1" ht="13.5"/>
+    <row r="22" spans="1:2" customFormat="1" ht="14.25">
       <c r="A22" s="29" t="s">
         <v>0</v>
       </c>
@@ -5744,7 +5887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2" customFormat="1" ht="14.25">
       <c r="A23" s="29" t="s">
         <v>0</v>
       </c>
@@ -5752,7 +5895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2" customFormat="1" ht="14.25">
       <c r="A24" s="29" t="s">
         <v>0</v>
       </c>
@@ -5760,11 +5903,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="13.5" spans="1:2">
+    <row r="25" spans="1:2" customFormat="1" ht="13.5">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2" customFormat="1" ht="14.25">
       <c r="A26" s="29" t="s">
         <v>0</v>
       </c>
@@ -5772,7 +5915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2" customFormat="1" ht="14.25">
       <c r="A27" s="29" t="s">
         <v>0</v>
       </c>
@@ -5780,7 +5923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2" customFormat="1" ht="14.25">
       <c r="A28" s="29" t="s">
         <v>0</v>
       </c>
@@ -5788,7 +5931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:2">
+    <row r="29" spans="1:2" customFormat="1" ht="14.25">
       <c r="A29" s="29" t="s">
         <v>0</v>
       </c>
@@ -5796,11 +5939,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="13.5" spans="1:2">
+    <row r="30" spans="1:2" customFormat="1" ht="13.5">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2" customFormat="1" ht="14.25">
       <c r="A31" s="29" t="s">
         <v>0</v>
       </c>
@@ -5808,7 +5951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2" customFormat="1" ht="14.25">
       <c r="A32" s="29" t="s">
         <v>0</v>
       </c>
@@ -5816,7 +5959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2" customFormat="1" ht="14.25">
       <c r="A33" s="29" t="s">
         <v>0</v>
       </c>
@@ -5824,7 +5967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2" customFormat="1" ht="14.25">
       <c r="A34" s="29" t="s">
         <v>0</v>
       </c>
@@ -5832,7 +5975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2" customFormat="1" ht="14.25">
       <c r="A35" s="29" t="s">
         <v>0</v>
       </c>
@@ -5840,7 +5983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" customFormat="1" ht="14.25">
       <c r="A36" s="29" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +5991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:2">
+    <row r="37" spans="1:2" customFormat="1" ht="14.25">
       <c r="A37" s="29" t="s">
         <v>0</v>
       </c>
@@ -5856,7 +5999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2" customFormat="1" ht="14.25">
       <c r="A38" s="29" t="s">
         <v>0</v>
       </c>
@@ -5864,7 +6007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2" customFormat="1" ht="14.25">
       <c r="A39" s="29" t="s">
         <v>0</v>
       </c>
@@ -5872,7 +6015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2" customFormat="1" ht="14.25">
       <c r="A40" s="29" t="s">
         <v>0</v>
       </c>
@@ -5880,7 +6023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2" customFormat="1" ht="14.25">
       <c r="A41" s="29" t="s">
         <v>0</v>
       </c>
@@ -5888,7 +6031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2" customFormat="1" ht="14.25">
       <c r="A42" s="29" t="s">
         <v>0</v>
       </c>
@@ -5896,7 +6039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2" customFormat="1" ht="14.25">
       <c r="A43" s="29" t="s">
         <v>0</v>
       </c>
@@ -5904,7 +6047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2" customFormat="1" ht="14.25">
       <c r="A44" s="29" t="s">
         <v>0</v>
       </c>
@@ -5912,7 +6055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2" customFormat="1" ht="14.25">
       <c r="A45" s="29" t="s">
         <v>0</v>
       </c>
@@ -5920,7 +6063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2" customFormat="1" ht="14.25">
       <c r="A46" s="29" t="s">
         <v>0</v>
       </c>
@@ -5928,7 +6071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2" customFormat="1" ht="14.25">
       <c r="A47" s="29" t="s">
         <v>0</v>
       </c>
@@ -5936,7 +6079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2" customFormat="1" ht="14.25">
       <c r="A48" s="29" t="s">
         <v>0</v>
       </c>
@@ -5944,7 +6087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:2">
+    <row r="49" spans="1:8" customFormat="1" ht="14.25">
       <c r="A49" s="29" t="s">
         <v>0</v>
       </c>
@@ -5952,7 +6095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:2">
+    <row r="50" spans="1:8" customFormat="1" ht="14.25">
       <c r="A50" s="29" t="s">
         <v>0</v>
       </c>
@@ -5960,7 +6103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:2">
+    <row r="51" spans="1:8" customFormat="1" ht="14.25">
       <c r="A51" s="29" t="s">
         <v>0</v>
       </c>
@@ -5968,7 +6111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:2">
+    <row r="52" spans="1:8" customFormat="1" ht="14.25">
       <c r="A52" s="29" t="s">
         <v>0</v>
       </c>
@@ -5976,7 +6119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:2">
+    <row r="53" spans="1:8" customFormat="1" ht="14.25">
       <c r="A53" s="29" t="s">
         <v>0</v>
       </c>
@@ -5984,7 +6127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:2">
+    <row r="54" spans="1:8" customFormat="1" ht="14.25">
       <c r="A54" s="29" t="s">
         <v>0</v>
       </c>
@@ -5992,7 +6135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:2">
+    <row r="55" spans="1:8" customFormat="1" ht="14.25">
       <c r="A55" s="29" t="s">
         <v>0</v>
       </c>
@@ -6000,7 +6143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:2">
+    <row r="56" spans="1:8" customFormat="1" ht="14.25">
       <c r="A56" s="29" t="s">
         <v>0</v>
       </c>
@@ -6008,7 +6151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:2">
+    <row r="57" spans="1:8" customFormat="1" ht="14.25">
       <c r="A57" s="29" t="s">
         <v>0</v>
       </c>
@@ -6016,13 +6159,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="13.5"/>
-    <row r="59" customFormat="1" ht="13.5"/>
-    <row r="60" customFormat="1" ht="13.5" spans="1:2">
+    <row r="58" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="59" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="60" spans="1:8" customFormat="1" ht="13.5">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:8">
+    <row r="61" spans="1:8" customFormat="1" ht="14.25">
       <c r="A61" s="29" t="s">
         <v>0</v>
       </c>
@@ -6035,7 +6178,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:8">
+    <row r="62" spans="1:8" customFormat="1" ht="14.25">
       <c r="A62" s="29" t="s">
         <v>0</v>
       </c>
@@ -6049,7 +6192,7 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:8">
+    <row r="63" spans="1:8" customFormat="1" ht="14.25">
       <c r="A63" s="29" t="s">
         <v>0</v>
       </c>
@@ -6063,7 +6206,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" customFormat="1" ht="14.25" spans="1:8">
+    <row r="64" spans="1:8" customFormat="1" ht="14.25">
       <c r="A64" s="29" t="s">
         <v>0</v>
       </c>
@@ -6077,7 +6220,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" customFormat="1" ht="13.5" spans="1:8">
+    <row r="65" spans="1:19" customFormat="1" ht="13.5">
       <c r="A65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -6086,10 +6229,8 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A66" s="29" t="s">
-        <v>0</v>
-      </c>
+    <row r="66" spans="1:19" customFormat="1" ht="14.25">
+      <c r="A66" s="29"/>
       <c r="B66" t="s">
         <v>53</v>
       </c>
@@ -6100,7 +6241,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:8">
+    <row r="67" spans="1:19" customFormat="1" ht="14.25">
       <c r="A67" s="29" t="s">
         <v>0</v>
       </c>
@@ -6114,7 +6255,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:8">
+    <row r="68" spans="1:19" customFormat="1" ht="14.25">
       <c r="A68" s="29" t="s">
         <v>0</v>
       </c>
@@ -6128,7 +6269,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" customFormat="1" ht="14.25" spans="1:8">
+    <row r="69" spans="1:19" customFormat="1" ht="14.25">
       <c r="A69" s="29" t="s">
         <v>0</v>
       </c>
@@ -6142,7 +6283,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" customFormat="1" ht="14.25" spans="1:8">
+    <row r="70" spans="1:19" customFormat="1" ht="14.25">
       <c r="A70" s="29" t="s">
         <v>0</v>
       </c>
@@ -6156,7 +6297,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" customFormat="1" ht="14.25" spans="1:2">
+    <row r="71" spans="1:19" customFormat="1" ht="14.25">
       <c r="A71" s="29" t="s">
         <v>0</v>
       </c>
@@ -6164,7 +6305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" s="9" customFormat="1" spans="1:7">
+    <row r="72" spans="1:19">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -6173,7 +6314,7 @@
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
     </row>
-    <row r="73" s="9" customFormat="1" spans="1:7">
+    <row r="73" spans="1:19">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -6182,7 +6323,7 @@
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
     </row>
-    <row r="74" customFormat="1" ht="13.5" spans="1:7">
+    <row r="74" spans="1:19" customFormat="1" ht="13.5">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -6191,7 +6332,7 @@
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
     </row>
-    <row r="75" s="25" customFormat="1" ht="14.25" spans="1:2">
+    <row r="75" spans="1:19" s="25" customFormat="1" ht="14.25">
       <c r="A75" s="31" t="s">
         <v>59</v>
       </c>
@@ -6199,7 +6340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" s="25" customFormat="1" spans="2:19">
+    <row r="76" spans="1:19" s="25" customFormat="1">
       <c r="B76" s="32" t="s">
         <v>61</v>
       </c>
@@ -6255,7 +6396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" s="25" customFormat="1" spans="2:19">
+    <row r="77" spans="1:19" s="25" customFormat="1">
       <c r="B77" s="34" t="s">
         <v>63</v>
       </c>
@@ -6311,7 +6452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" s="25" customFormat="1" spans="2:19">
+    <row r="78" spans="1:19" s="25" customFormat="1">
       <c r="B78" s="36" t="s">
         <v>81</v>
       </c>
@@ -6367,7 +6508,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" s="25" customFormat="1" spans="2:19">
+    <row r="79" spans="1:19" s="25" customFormat="1">
       <c r="B79" s="36" t="s">
         <v>87</v>
       </c>
@@ -6423,7 +6564,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" s="25" customFormat="1" spans="2:19">
+    <row r="80" spans="1:19" s="25" customFormat="1">
       <c r="B80" s="36" t="s">
         <v>90</v>
       </c>
@@ -6479,7 +6620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" s="25" customFormat="1" spans="2:19">
+    <row r="81" spans="1:239" s="25" customFormat="1">
       <c r="B81" s="36" t="s">
         <v>93</v>
       </c>
@@ -6535,7 +6676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" s="25" customFormat="1" spans="2:19">
+    <row r="82" spans="1:239" s="25" customFormat="1">
       <c r="B82" s="36" t="s">
         <v>97</v>
       </c>
@@ -6591,7 +6732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" s="25" customFormat="1" spans="2:19">
+    <row r="83" spans="1:239" s="25" customFormat="1">
       <c r="B83" s="36" t="s">
         <v>100</v>
       </c>
@@ -6647,7 +6788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" s="25" customFormat="1" spans="2:19">
+    <row r="84" spans="1:239" s="25" customFormat="1">
       <c r="B84" s="36" t="s">
         <v>102</v>
       </c>
@@ -6703,8 +6844,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" s="25" customFormat="1"/>
-    <row r="86" s="9" customFormat="1" spans="1:7">
+    <row r="85" spans="1:239" s="25" customFormat="1"/>
+    <row r="86" spans="1:239">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -6713,7 +6854,7 @@
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
     </row>
-    <row r="87" customFormat="1" ht="13.5" spans="1:7">
+    <row r="87" spans="1:239" customFormat="1" ht="13.5">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -6722,7 +6863,7 @@
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
     </row>
-    <row r="88" s="26" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="88" spans="1:239" s="26" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="38" t="s">
         <v>59</v>
       </c>
@@ -6730,7 +6871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" s="26" customFormat="1" ht="13.5" spans="2:71">
+    <row r="89" spans="1:239" s="26" customFormat="1" ht="13.5">
       <c r="B89" s="39" t="s">
         <v>106</v>
       </c>
@@ -6804,7 +6945,7 @@
       <c r="BR89" s="40"/>
       <c r="BS89" s="40"/>
     </row>
-    <row r="90" s="26" customFormat="1" ht="13.5" spans="1:74">
+    <row r="90" spans="1:239" s="26" customFormat="1" ht="13.5">
       <c r="A90" s="13"/>
       <c r="B90" s="41" t="s">
         <v>64</v>
@@ -7026,7 +7167,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" s="26" customFormat="1" ht="13.5" spans="1:239">
+    <row r="91" spans="1:239" s="26" customFormat="1" ht="13.5">
       <c r="A91" s="43"/>
       <c r="B91" s="44" t="s">
         <v>82</v>
@@ -7413,7 +7554,7 @@
       <c r="ID91" s="13"/>
       <c r="IE91" s="13"/>
     </row>
-    <row r="92" customFormat="1" ht="13.5" spans="1:239">
+    <row r="92" spans="1:239" customFormat="1" ht="13.5">
       <c r="A92" s="13"/>
       <c r="B92" s="44" t="s">
         <v>94</v>
@@ -7800,7 +7941,7 @@
       <c r="ID92" s="13"/>
       <c r="IE92" s="13"/>
     </row>
-    <row r="93" customFormat="1" ht="13.5" spans="1:239">
+    <row r="93" spans="1:239" customFormat="1" ht="13.5">
       <c r="A93" s="15"/>
       <c r="B93" s="44" t="s">
         <v>94</v>
@@ -8187,7 +8328,7 @@
       <c r="ID93" s="13"/>
       <c r="IE93" s="13"/>
     </row>
-    <row r="94" customFormat="1" ht="13.5" spans="1:239">
+    <row r="94" spans="1:239" customFormat="1" ht="13.5">
       <c r="A94" s="15"/>
       <c r="B94" s="44" t="s">
         <v>82</v>
@@ -8574,7 +8715,7 @@
       <c r="ID94" s="13"/>
       <c r="IE94" s="13"/>
     </row>
-    <row r="95" customFormat="1" ht="13.5" spans="1:239">
+    <row r="95" spans="1:239" customFormat="1" ht="13.5">
       <c r="A95" s="15"/>
       <c r="B95" s="44" t="s">
         <v>82</v>
@@ -8961,7 +9102,7 @@
       <c r="ID95" s="13"/>
       <c r="IE95" s="13"/>
     </row>
-    <row r="96" customFormat="1" ht="13.5" spans="1:239">
+    <row r="96" spans="1:239" customFormat="1" ht="13.5">
       <c r="A96" s="15"/>
       <c r="B96" s="44" t="s">
         <v>94</v>
@@ -9348,7 +9489,7 @@
       <c r="ID96" s="13"/>
       <c r="IE96" s="13"/>
     </row>
-    <row r="97" customFormat="1" ht="13.5" spans="1:239">
+    <row r="97" spans="1:239" customFormat="1" ht="13.5">
       <c r="A97" s="15"/>
       <c r="B97" s="44" t="s">
         <v>94</v>
@@ -9735,7 +9876,7 @@
       <c r="ID97" s="13"/>
       <c r="IE97" s="13"/>
     </row>
-    <row r="98" customFormat="1" ht="13.5" spans="1:239">
+    <row r="98" spans="1:239" customFormat="1" ht="13.5">
       <c r="A98" s="15"/>
       <c r="B98" s="44" t="s">
         <v>82</v>
@@ -10122,7 +10263,7 @@
       <c r="ID98" s="13"/>
       <c r="IE98" s="13"/>
     </row>
-    <row r="99" customFormat="1" ht="13.5" spans="1:7">
+    <row r="99" spans="1:239" customFormat="1" ht="13.5">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -10131,7 +10272,7 @@
       <c r="F99" s="25"/>
       <c r="G99" s="25"/>
     </row>
-    <row r="103" ht="14.25" spans="1:10">
+    <row r="103" spans="1:239" ht="14.25">
       <c r="A103" s="31" t="s">
         <v>59</v>
       </c>
@@ -10147,7 +10288,7 @@
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="1:239">
       <c r="B104" s="32" t="s">
         <v>226</v>
       </c>
@@ -10176,7 +10317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:239">
       <c r="A105" s="25"/>
       <c r="B105" s="34" t="s">
         <v>63</v>
@@ -10206,7 +10347,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:239">
       <c r="A106" s="25"/>
       <c r="B106" s="36" t="s">
         <v>81</v>
@@ -10236,7 +10377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:239">
       <c r="A107" s="25"/>
       <c r="B107" s="36" t="s">
         <v>87</v>
@@ -10266,7 +10407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:239">
       <c r="A108" s="25"/>
       <c r="B108" s="36" t="s">
         <v>90</v>
@@ -10296,7 +10437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:239">
       <c r="A109" s="25"/>
       <c r="B109" s="36" t="s">
         <v>93</v>
@@ -10326,7 +10467,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:239">
       <c r="A110" s="25"/>
       <c r="B110" s="36" t="s">
         <v>97</v>
@@ -10356,7 +10497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:239">
       <c r="A111" s="25"/>
       <c r="B111" s="36" t="s">
         <v>100</v>
@@ -10386,7 +10527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:239">
       <c r="A112" s="25"/>
       <c r="B112" s="36" t="s">
         <v>102</v>
@@ -10416,7 +10557,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" s="25" customFormat="1" ht="14.25" spans="1:2">
+    <row r="115" spans="1:35" s="25" customFormat="1" ht="14.25">
       <c r="A115" s="31" t="s">
         <v>59</v>
       </c>
@@ -10424,7 +10565,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" s="25" customFormat="1" spans="2:13">
+    <row r="116" spans="1:35" s="25" customFormat="1">
       <c r="B116" s="32" t="s">
         <v>234</v>
       </c>
@@ -10462,7 +10603,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" s="25" customFormat="1" spans="2:13">
+    <row r="117" spans="1:35" s="25" customFormat="1">
       <c r="B117" s="34" t="s">
         <v>63</v>
       </c>
@@ -10500,7 +10641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" s="25" customFormat="1" spans="2:13">
+    <row r="118" spans="1:35" s="25" customFormat="1">
       <c r="B118" s="36" t="s">
         <v>81</v>
       </c>
@@ -10538,7 +10679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" s="25" customFormat="1" spans="2:13">
+    <row r="119" spans="1:35" s="25" customFormat="1">
       <c r="B119" s="36" t="s">
         <v>87</v>
       </c>
@@ -10576,7 +10717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" s="25" customFormat="1" spans="2:13">
+    <row r="120" spans="1:35" s="25" customFormat="1">
       <c r="B120" s="36" t="s">
         <v>90</v>
       </c>
@@ -10614,8 +10755,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" s="25" customFormat="1"/>
-    <row r="124" ht="13.5" spans="2:35">
+    <row r="121" spans="1:35" s="25" customFormat="1"/>
+    <row r="124" spans="1:35" ht="13.5">
       <c r="B124" s="15"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -10651,7 +10792,7 @@
       <c r="AH124" s="13"/>
       <c r="AI124" s="13"/>
     </row>
-    <row r="125" ht="13.5" spans="2:35">
+    <row r="125" spans="1:35" ht="13.5">
       <c r="B125" s="17"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -10687,7 +10828,7 @@
       <c r="AH125" s="13"/>
       <c r="AI125" s="13"/>
     </row>
-    <row r="126" ht="14.25" spans="1:35">
+    <row r="126" spans="1:35" ht="14.25">
       <c r="A126" s="31" t="s">
         <v>59</v>
       </c>
@@ -10728,7 +10869,7 @@
       <c r="AH126" s="13"/>
       <c r="AI126" s="13"/>
     </row>
-    <row r="127" ht="13.5" spans="2:35">
+    <row r="127" spans="1:35" ht="13.5">
       <c r="B127" s="32" t="s">
         <v>249</v>
       </c>
@@ -10766,7 +10907,7 @@
       <c r="AH127" s="13"/>
       <c r="AI127" s="13"/>
     </row>
-    <row r="128" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="128" spans="1:35" ht="13.5">
       <c r="B128" s="35" t="s">
         <v>64</v>
       </c>
@@ -10816,7 +10957,7 @@
       <c r="AH128" s="13"/>
       <c r="AI128" s="13"/>
     </row>
-    <row r="129" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="129" spans="1:36" ht="13.5">
       <c r="B129" s="36" t="s">
         <v>82</v>
       </c>
@@ -10866,7 +11007,7 @@
       <c r="AH129" s="13"/>
       <c r="AI129" s="13"/>
     </row>
-    <row r="130" ht="13.5" spans="2:35">
+    <row r="130" spans="1:36" ht="13.5">
       <c r="B130" s="15"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -10902,7 +11043,7 @@
       <c r="AH130" s="13"/>
       <c r="AI130" s="13"/>
     </row>
-    <row r="131" ht="13.5" spans="2:35">
+    <row r="131" spans="1:36" ht="13.5">
       <c r="B131" s="17"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -10938,7 +11079,7 @@
       <c r="AH131" s="13"/>
       <c r="AI131" s="13"/>
     </row>
-    <row r="132" ht="13.5" spans="2:35">
+    <row r="132" spans="1:36" ht="13.5">
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
@@ -10974,7 +11115,7 @@
       <c r="AH132" s="13"/>
       <c r="AI132" s="13"/>
     </row>
-    <row r="134" ht="14.25" spans="1:2">
+    <row r="134" spans="1:36" ht="14.25">
       <c r="A134" s="14" t="s">
         <v>59</v>
       </c>
@@ -10982,13 +11123,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:36">
       <c r="A135" s="16"/>
       <c r="B135" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="136" s="9" customFormat="1" spans="2:36">
+    <row r="136" spans="1:36">
       <c r="B136" s="34" t="s">
         <v>63</v>
       </c>
@@ -11093,7 +11234,7 @@
       </c>
       <c r="AJ136" s="35"/>
     </row>
-    <row r="137" s="9" customFormat="1" spans="2:35">
+    <row r="137" spans="1:36">
       <c r="B137" s="36">
         <v>1</v>
       </c>
@@ -11197,7 +11338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" s="9" customFormat="1" spans="2:35">
+    <row r="138" spans="1:36">
       <c r="B138" s="36">
         <v>2</v>
       </c>
@@ -11301,7 +11442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" s="9" customFormat="1" spans="2:35">
+    <row r="139" spans="1:36">
       <c r="B139" s="36">
         <v>3</v>
       </c>
@@ -11405,7 +11546,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" s="9" customFormat="1" spans="2:35">
+    <row r="140" spans="1:36">
       <c r="B140" s="36">
         <v>4</v>
       </c>
@@ -11509,7 +11650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" s="9" customFormat="1" spans="2:35">
+    <row r="141" spans="1:36">
       <c r="B141" s="36">
         <v>5</v>
       </c>
@@ -11613,7 +11754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" s="9" customFormat="1" spans="2:35">
+    <row r="142" spans="1:36">
       <c r="B142" s="36">
         <v>6</v>
       </c>
@@ -11717,7 +11858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" s="9" customFormat="1" spans="2:35">
+    <row r="143" spans="1:36">
       <c r="B143" s="36">
         <v>7</v>
       </c>
@@ -11821,7 +11962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" s="9" customFormat="1" spans="2:35">
+    <row r="144" spans="1:36">
       <c r="B144" s="36">
         <v>8</v>
       </c>
@@ -11925,7 +12066,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" s="9" customFormat="1" spans="2:35">
+    <row r="145" spans="1:35">
       <c r="B145" s="36">
         <v>9</v>
       </c>
@@ -12029,7 +12170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" s="9" customFormat="1" spans="2:35">
+    <row r="146" spans="1:35">
       <c r="B146" s="36">
         <v>10</v>
       </c>
@@ -12133,7 +12274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" s="9" customFormat="1" spans="2:35">
+    <row r="147" spans="1:35">
       <c r="B147" s="36">
         <v>11</v>
       </c>
@@ -12237,7 +12378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" s="9" customFormat="1" spans="2:35">
+    <row r="148" spans="1:35">
       <c r="B148" s="36">
         <v>12</v>
       </c>
@@ -12341,7 +12482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" s="9" customFormat="1" spans="2:35">
+    <row r="149" spans="1:35">
       <c r="B149" s="36">
         <v>13</v>
       </c>
@@ -12445,7 +12586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" s="9" customFormat="1" spans="2:35">
+    <row r="150" spans="1:35">
       <c r="B150" s="36">
         <v>14</v>
       </c>
@@ -12549,7 +12690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" s="9" customFormat="1" spans="2:35">
+    <row r="151" spans="1:35">
       <c r="B151" s="36">
         <v>15</v>
       </c>
@@ -12653,7 +12794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="2:35">
+    <row r="152" spans="1:35">
       <c r="B152" s="36">
         <v>390</v>
       </c>
@@ -12757,7 +12898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" ht="13.5" spans="2:35">
+    <row r="153" spans="1:35" ht="13.5">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -12793,7 +12934,7 @@
       <c r="AH153" s="13"/>
       <c r="AI153" s="13"/>
     </row>
-    <row r="154" ht="13.5" spans="2:35">
+    <row r="154" spans="1:35" ht="13.5">
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
@@ -12829,7 +12970,7 @@
       <c r="AH154" s="13"/>
       <c r="AI154" s="13"/>
     </row>
-    <row r="155" ht="13.5" spans="2:35">
+    <row r="155" spans="1:35" ht="13.5">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -12865,7 +13006,7 @@
       <c r="AH155" s="13"/>
       <c r="AI155" s="13"/>
     </row>
-    <row r="156" ht="13.5" spans="2:35">
+    <row r="156" spans="1:35" ht="13.5">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -12901,7 +13042,7 @@
       <c r="AH156" s="13"/>
       <c r="AI156" s="13"/>
     </row>
-    <row r="157" ht="13.5" spans="2:35">
+    <row r="157" spans="1:35" ht="13.5">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -12937,7 +13078,7 @@
       <c r="AH157" s="13"/>
       <c r="AI157" s="13"/>
     </row>
-    <row r="158" ht="13.5" spans="2:35">
+    <row r="158" spans="1:35" ht="13.5">
       <c r="B158" s="15"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -12973,7 +13114,7 @@
       <c r="AH158" s="13"/>
       <c r="AI158" s="13"/>
     </row>
-    <row r="159" ht="14.25" spans="1:35">
+    <row r="159" spans="1:35" ht="14.25">
       <c r="A159" s="14" t="s">
         <v>59</v>
       </c>
@@ -13014,7 +13155,7 @@
       <c r="AH159" s="13"/>
       <c r="AI159" s="13"/>
     </row>
-    <row r="160" ht="13.5" spans="1:35">
+    <row r="160" spans="1:35" ht="13.5">
       <c r="A160" s="16"/>
       <c r="B160" s="17" t="s">
         <v>283</v>
@@ -13053,7 +13194,7 @@
       <c r="AH160" s="13"/>
       <c r="AI160" s="13"/>
     </row>
-    <row r="161" ht="13.5" spans="1:239">
+    <row r="161" spans="1:239" ht="13.5">
       <c r="A161" s="13"/>
       <c r="B161" s="34" t="s">
         <v>107</v>
@@ -13770,7 +13911,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="162" ht="13.5" spans="1:239">
+    <row r="162" spans="1:239" ht="13.5">
       <c r="A162" s="13"/>
       <c r="B162" s="36">
         <v>49</v>
@@ -14487,7 +14628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:239">
+    <row r="163" spans="1:239" ht="13.5">
       <c r="A163" s="13"/>
       <c r="B163" s="36">
         <v>50</v>
@@ -15204,7 +15345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" ht="13.5" spans="1:239">
+    <row r="164" spans="1:239" ht="13.5">
       <c r="A164" s="13"/>
       <c r="B164" s="36">
         <v>51</v>
@@ -15921,7 +16062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="165" ht="13.5" spans="1:239">
+    <row r="165" spans="1:239" ht="13.5">
       <c r="A165" s="13"/>
       <c r="B165" s="36">
         <v>52</v>
@@ -16638,7 +16779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" ht="13.5" spans="1:239">
+    <row r="166" spans="1:239" ht="13.5">
       <c r="A166" s="13"/>
       <c r="B166" s="36">
         <v>53</v>
@@ -17355,7 +17496,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" ht="13.5" spans="1:239">
+    <row r="167" spans="1:239" ht="13.5">
       <c r="A167" s="13"/>
       <c r="B167" s="36">
         <v>54</v>
@@ -18072,7 +18213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" ht="13.5" spans="1:239">
+    <row r="168" spans="1:239" ht="13.5">
       <c r="A168" s="13"/>
       <c r="B168" s="36">
         <v>55</v>
@@ -18789,7 +18930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="169" ht="13.5" spans="1:239">
+    <row r="169" spans="1:239" ht="13.5">
       <c r="A169" s="13"/>
       <c r="B169" s="36">
         <v>56</v>
@@ -19506,7 +19647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" ht="13.5" spans="1:239">
+    <row r="170" spans="1:239" ht="13.5">
       <c r="A170" s="13"/>
       <c r="B170" s="36">
         <v>57</v>
@@ -20223,7 +20364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" ht="13.5" spans="1:239">
+    <row r="171" spans="1:239" ht="13.5">
       <c r="A171" s="13"/>
       <c r="B171" s="36">
         <v>58</v>
@@ -20940,7 +21081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="172" ht="13.5" spans="1:239">
+    <row r="172" spans="1:239" ht="13.5">
       <c r="A172" s="13"/>
       <c r="B172" s="36">
         <v>59</v>
@@ -21657,7 +21798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="173" ht="13.5" spans="1:239">
+    <row r="173" spans="1:239" ht="13.5">
       <c r="A173" s="13"/>
       <c r="B173" s="36">
         <v>60</v>
@@ -22374,7 +22515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" ht="13.5" spans="1:239">
+    <row r="174" spans="1:239" ht="13.5">
       <c r="A174" s="13"/>
       <c r="B174" s="36">
         <v>61</v>
@@ -23091,7 +23232,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" ht="13.5" spans="1:239">
+    <row r="175" spans="1:239" ht="13.5">
       <c r="A175" s="13"/>
       <c r="B175" s="36">
         <v>62</v>
@@ -23808,7 +23949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="176" ht="13.5" spans="1:239">
+    <row r="176" spans="1:239" ht="13.5">
       <c r="A176" s="13"/>
       <c r="B176" s="36">
         <v>63</v>
@@ -24525,7 +24666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" ht="13.5" spans="1:239">
+    <row r="177" spans="1:239" ht="13.5">
       <c r="A177" s="13"/>
       <c r="B177" s="36">
         <v>65</v>
@@ -25242,7 +25383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="178" ht="13.5" spans="1:239">
+    <row r="178" spans="1:239" ht="13.5">
       <c r="A178" s="13"/>
       <c r="B178" s="36">
         <v>66</v>
@@ -25959,7 +26100,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="179" ht="13.5" spans="1:239">
+    <row r="179" spans="1:239" ht="13.5">
       <c r="A179" s="13"/>
       <c r="B179" s="36">
         <v>67</v>
@@ -26676,7 +26817,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" ht="13.5" spans="1:239">
+    <row r="180" spans="1:239" ht="13.5">
       <c r="A180" s="13"/>
       <c r="B180" s="36">
         <v>68</v>
@@ -27393,7 +27534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" ht="13.5" spans="1:239">
+    <row r="181" spans="1:239" ht="13.5">
       <c r="A181" s="13"/>
       <c r="B181" s="36">
         <v>69</v>
@@ -28110,7 +28251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" ht="13.5" spans="1:239">
+    <row r="182" spans="1:239" ht="13.5">
       <c r="A182" s="13"/>
       <c r="B182" s="36">
         <v>70</v>
@@ -28827,7 +28968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" ht="13.5" spans="1:239">
+    <row r="183" spans="1:239" ht="13.5">
       <c r="A183" s="13"/>
       <c r="B183" s="36">
         <v>71</v>
@@ -29544,7 +29685,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" ht="13.5" spans="1:239">
+    <row r="184" spans="1:239" ht="13.5">
       <c r="A184" s="13"/>
       <c r="B184" s="36">
         <v>72</v>
@@ -30261,7 +30402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" ht="13.5" spans="1:239">
+    <row r="185" spans="1:239" ht="13.5">
       <c r="A185" s="13"/>
       <c r="B185" s="36">
         <v>73</v>
@@ -30978,7 +31119,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="186" ht="13.5" spans="1:239">
+    <row r="186" spans="1:239" ht="13.5">
       <c r="A186" s="13"/>
       <c r="B186" s="36">
         <v>74</v>
@@ -31695,7 +31836,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="187" ht="13.5" spans="1:239">
+    <row r="187" spans="1:239" ht="13.5">
       <c r="A187" s="13"/>
       <c r="B187" s="36">
         <v>75</v>
@@ -32412,7 +32553,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="188" ht="13.5" spans="1:239">
+    <row r="188" spans="1:239" ht="13.5">
       <c r="A188" s="13"/>
       <c r="B188" s="36">
         <v>76</v>
@@ -33129,7 +33270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" ht="13.5" spans="1:239">
+    <row r="189" spans="1:239" ht="13.5">
       <c r="A189" s="13"/>
       <c r="B189" s="36">
         <v>77</v>
@@ -33846,7 +33987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" ht="13.5" spans="1:239">
+    <row r="190" spans="1:239" ht="13.5">
       <c r="A190" s="13"/>
       <c r="B190" s="36">
         <v>78</v>
@@ -34563,7 +34704,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="191" ht="13.5" spans="1:239">
+    <row r="191" spans="1:239" ht="13.5">
       <c r="A191" s="13"/>
       <c r="B191" s="36">
         <v>79</v>
@@ -35280,7 +35421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" ht="13.5" spans="1:239">
+    <row r="192" spans="1:239" ht="13.5">
       <c r="A192" s="13"/>
       <c r="B192" s="36">
         <v>80</v>
@@ -35997,7 +36138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" ht="13.5" spans="2:104">
+    <row r="193" spans="1:148" ht="13.5">
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
@@ -36034,7 +36175,7 @@
       <c r="AI193" s="13"/>
       <c r="CZ193" s="13"/>
     </row>
-    <row r="194" ht="13.5" spans="2:35">
+    <row r="194" spans="1:148" ht="13.5">
       <c r="B194" s="15"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
@@ -36070,7 +36211,7 @@
       <c r="AH194" s="13"/>
       <c r="AI194" s="13"/>
     </row>
-    <row r="195" ht="13.5" spans="2:34">
+    <row r="195" spans="1:148" ht="13.5">
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
@@ -36105,7 +36246,7 @@
       <c r="AG195" s="13"/>
       <c r="AH195" s="13"/>
     </row>
-    <row r="196" ht="13.5" spans="2:34">
+    <row r="196" spans="1:148" ht="13.5">
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -36140,7 +36281,7 @@
       <c r="AG196" s="13"/>
       <c r="AH196" s="13"/>
     </row>
-    <row r="197" ht="13.5" spans="2:34">
+    <row r="197" spans="1:148" ht="13.5">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -36175,7 +36316,7 @@
       <c r="AG197" s="13"/>
       <c r="AH197" s="13"/>
     </row>
-    <row r="198" ht="13.5" spans="2:34">
+    <row r="198" spans="1:148" ht="13.5">
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
@@ -36210,7 +36351,7 @@
       <c r="AG198" s="13"/>
       <c r="AH198" s="13"/>
     </row>
-    <row r="199" ht="14.25" spans="1:34">
+    <row r="199" spans="1:148" ht="14.25">
       <c r="A199" s="14" t="s">
         <v>59</v>
       </c>
@@ -36250,13 +36391,13 @@
       <c r="AG199" s="13"/>
       <c r="AH199" s="13"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:148">
       <c r="A200" s="16"/>
       <c r="B200" s="17" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="201" spans="2:148">
+    <row r="201" spans="1:148">
       <c r="B201" s="35" t="s">
         <v>64</v>
       </c>
@@ -36685,7 +36826,7 @@
       <c r="EQ201" s="35"/>
       <c r="ER201" s="35"/>
     </row>
-    <row r="202" spans="2:141">
+    <row r="202" spans="1:148">
       <c r="B202" s="36" t="s">
         <v>978</v>
       </c>
@@ -37103,7 +37244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="2:141">
+    <row r="203" spans="1:148">
       <c r="B203" s="36" t="s">
         <v>990</v>
       </c>
@@ -37523,7 +37664,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="2:141">
+    <row r="204" spans="1:148">
       <c r="B204" s="36" t="s">
         <v>996</v>
       </c>
@@ -37941,7 +38082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="2:141">
+    <row r="205" spans="1:148">
       <c r="B205" s="36" t="s">
         <v>996</v>
       </c>
@@ -38359,7 +38500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="2:141">
+    <row r="206" spans="1:148">
       <c r="B206" s="36" t="s">
         <v>996</v>
       </c>
@@ -38777,7 +38918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="2:141">
+    <row r="207" spans="1:148">
       <c r="B207" s="36" t="s">
         <v>996</v>
       </c>
@@ -39195,7 +39336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="2:141">
+    <row r="208" spans="1:148">
       <c r="B208" s="36" t="s">
         <v>996</v>
       </c>
@@ -39613,7 +39754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="2:141">
+    <row r="209" spans="2:146">
       <c r="B209" s="36" t="s">
         <v>996</v>
       </c>
@@ -40031,7 +40172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="210" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="210" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B210" s="36" t="s">
         <v>996</v>
       </c>
@@ -40454,7 +40595,7 @@
       <c r="EO210" s="9"/>
       <c r="EP210" s="9"/>
     </row>
-    <row r="211" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="211" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B211" s="36" t="s">
         <v>996</v>
       </c>
@@ -40877,7 +41018,7 @@
       <c r="EO211" s="9"/>
       <c r="EP211" s="9"/>
     </row>
-    <row r="212" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="212" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B212" s="36" t="s">
         <v>996</v>
       </c>
@@ -41300,7 +41441,7 @@
       <c r="EO212" s="9"/>
       <c r="EP212" s="9"/>
     </row>
-    <row r="213" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="213" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B213" s="36" t="s">
         <v>996</v>
       </c>
@@ -41723,7 +41864,7 @@
       <c r="EO213" s="9"/>
       <c r="EP213" s="9"/>
     </row>
-    <row r="214" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="214" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B214" s="36" t="s">
         <v>996</v>
       </c>
@@ -42146,7 +42287,7 @@
       <c r="EO214" s="9"/>
       <c r="EP214" s="9"/>
     </row>
-    <row r="215" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="215" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B215" s="36" t="s">
         <v>996</v>
       </c>
@@ -42573,7 +42714,7 @@
       <c r="EO215" s="9"/>
       <c r="EP215" s="9"/>
     </row>
-    <row r="216" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="216" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B216" s="36" t="s">
         <v>996</v>
       </c>
@@ -42996,7 +43137,7 @@
       <c r="EO216" s="9"/>
       <c r="EP216" s="9"/>
     </row>
-    <row r="217" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="217" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B217" s="36" t="s">
         <v>996</v>
       </c>
@@ -43419,7 +43560,7 @@
       <c r="EO217" s="9"/>
       <c r="EP217" s="9"/>
     </row>
-    <row r="218" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="218" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B218" s="36" t="s">
         <v>996</v>
       </c>
@@ -43842,7 +43983,7 @@
       <c r="EO218" s="9"/>
       <c r="EP218" s="9"/>
     </row>
-    <row r="219" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="219" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B219" s="36" t="s">
         <v>996</v>
       </c>
@@ -44265,7 +44406,7 @@
       <c r="EO219" s="9"/>
       <c r="EP219" s="9"/>
     </row>
-    <row r="220" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="220" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B220" s="36" t="s">
         <v>996</v>
       </c>
@@ -44688,7 +44829,7 @@
       <c r="EO220" s="9"/>
       <c r="EP220" s="9"/>
     </row>
-    <row r="221" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="221" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B221" s="36" t="s">
         <v>996</v>
       </c>
@@ -45111,7 +45252,7 @@
       <c r="EO221" s="9"/>
       <c r="EP221" s="9"/>
     </row>
-    <row r="222" s="27" customFormat="1" ht="13.5" spans="2:146">
+    <row r="222" spans="2:146" s="27" customFormat="1" ht="13.5">
       <c r="B222" s="36" t="s">
         <v>996</v>
       </c>
@@ -45534,7 +45675,7 @@
       <c r="EO222" s="9"/>
       <c r="EP222" s="9"/>
     </row>
-    <row r="228" ht="14.25" spans="1:131">
+    <row r="228" spans="1:131" ht="14.25">
       <c r="A228" s="14" t="s">
         <v>59</v>
       </c>
@@ -45543,13 +45684,13 @@
       </c>
       <c r="EA228" s="28"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:131">
       <c r="A229" s="16"/>
       <c r="B229" s="17" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="230" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="230" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B230" s="34" t="s">
         <v>63</v>
       </c>
@@ -45647,7 +45788,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="231" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="231" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B231" s="36">
         <v>1</v>
       </c>
@@ -45745,7 +45886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="232" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B232" s="36">
         <v>2</v>
       </c>
@@ -45843,7 +45984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="233" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B233" s="36">
         <v>101</v>
       </c>
@@ -45941,7 +46082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="234" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B234" s="36">
         <v>102</v>
       </c>
@@ -46039,7 +46180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="235" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B235" s="36">
         <v>103</v>
       </c>
@@ -46137,7 +46278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="236" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B236" s="36">
         <v>104</v>
       </c>
@@ -46235,7 +46376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="237" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B237" s="36">
         <v>105</v>
       </c>
@@ -46333,7 +46474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="238" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B238" s="36">
         <v>106</v>
       </c>
@@ -46431,7 +46572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="239" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B239" s="36">
         <v>107</v>
       </c>
@@ -46529,7 +46670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="240" spans="1:131" s="28" customFormat="1" ht="12.75">
       <c r="B240" s="36">
         <v>108</v>
       </c>
@@ -46627,7 +46768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="241" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B241" s="36">
         <v>109</v>
       </c>
@@ -46725,7 +46866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="242" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B242" s="36">
         <v>110</v>
       </c>
@@ -46823,7 +46964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="243" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B243" s="36">
         <v>111</v>
       </c>
@@ -46921,7 +47062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="244" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B244" s="36">
         <v>112</v>
       </c>
@@ -47019,7 +47160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="245" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B245" s="36">
         <v>113</v>
       </c>
@@ -47117,7 +47258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="246" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B246" s="36">
         <v>114</v>
       </c>
@@ -47215,7 +47356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="247" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B247" s="36">
         <v>115</v>
       </c>
@@ -47313,7 +47454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="248" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B248" s="36">
         <v>116</v>
       </c>
@@ -47411,7 +47552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="249" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B249" s="36">
         <v>117</v>
       </c>
@@ -47509,7 +47650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="250" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B250" s="36">
         <v>118</v>
       </c>
@@ -47607,7 +47748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" s="28" customFormat="1" ht="12.75" spans="2:33">
+    <row r="251" spans="2:33" s="28" customFormat="1" ht="12.75">
       <c r="B251" s="36">
         <v>119</v>
       </c>
@@ -47705,7 +47846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" ht="14.25" spans="1:2">
+    <row r="258" spans="1:142" ht="14.25">
       <c r="A258" s="14" t="s">
         <v>59</v>
       </c>
@@ -47713,13 +47854,13 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:142">
       <c r="A259" s="16"/>
       <c r="B259" s="17" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="260" spans="2:28">
+    <row r="260" spans="1:142">
       <c r="B260" s="34" t="s">
         <v>63</v>
       </c>
@@ -47802,7 +47943,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="261" ht="13.5" spans="1:142">
+    <row r="261" spans="1:142" ht="13.5">
       <c r="A261" s="27"/>
       <c r="B261" s="36">
         <v>118</v>
@@ -48000,7 +48141,7 @@
       <c r="EK261" s="27"/>
       <c r="EL261" s="27"/>
     </row>
-    <row r="262" ht="13.5" spans="1:142">
+    <row r="262" spans="1:142" ht="13.5">
       <c r="A262" s="27"/>
       <c r="B262" s="36">
         <v>119</v>
@@ -48198,7 +48339,7 @@
       <c r="EK262" s="27"/>
       <c r="EL262" s="27"/>
     </row>
-    <row r="263" ht="13.5" spans="1:142">
+    <row r="263" spans="1:142" ht="13.5">
       <c r="A263" s="27"/>
       <c r="B263" s="36">
         <v>120</v>
@@ -48396,7 +48537,7 @@
       <c r="EK263" s="27"/>
       <c r="EL263" s="27"/>
     </row>
-    <row r="264" ht="13.5" spans="1:142">
+    <row r="264" spans="1:142" ht="13.5">
       <c r="A264" s="27"/>
       <c r="B264" s="36">
         <v>121</v>
@@ -48594,7 +48735,7 @@
       <c r="EK264" s="27"/>
       <c r="EL264" s="27"/>
     </row>
-    <row r="265" ht="13.5" spans="1:142">
+    <row r="265" spans="1:142" ht="13.5">
       <c r="A265" s="27"/>
       <c r="B265" s="36">
         <v>122</v>
@@ -48792,7 +48933,7 @@
       <c r="EK265" s="27"/>
       <c r="EL265" s="27"/>
     </row>
-    <row r="266" ht="13.5" spans="1:142">
+    <row r="266" spans="1:142" ht="13.5">
       <c r="A266" s="27"/>
       <c r="B266" s="36">
         <v>123</v>
@@ -48990,7 +49131,7 @@
       <c r="EK266" s="27"/>
       <c r="EL266" s="27"/>
     </row>
-    <row r="267" ht="13.5" spans="1:142">
+    <row r="267" spans="1:142" ht="13.5">
       <c r="A267" s="27"/>
       <c r="B267" s="36">
         <v>124</v>
@@ -49188,7 +49329,7 @@
       <c r="EK267" s="27"/>
       <c r="EL267" s="27"/>
     </row>
-    <row r="268" ht="13.5" spans="1:142">
+    <row r="268" spans="1:142" ht="13.5">
       <c r="A268" s="27"/>
       <c r="B268" s="36">
         <v>125</v>
@@ -49386,7 +49527,7 @@
       <c r="EK268" s="27"/>
       <c r="EL268" s="27"/>
     </row>
-    <row r="269" ht="13.5" spans="1:142">
+    <row r="269" spans="1:142" ht="13.5">
       <c r="A269" s="27"/>
       <c r="B269" s="36">
         <v>126</v>
@@ -49584,7 +49725,7 @@
       <c r="EK269" s="27"/>
       <c r="EL269" s="27"/>
     </row>
-    <row r="270" ht="13.5" spans="1:142">
+    <row r="270" spans="1:142" ht="13.5">
       <c r="A270" s="27"/>
       <c r="B270" s="36">
         <v>127</v>
@@ -49782,7 +49923,7 @@
       <c r="EK270" s="27"/>
       <c r="EL270" s="27"/>
     </row>
-    <row r="271" ht="13.5" spans="1:142">
+    <row r="271" spans="1:142" ht="13.5">
       <c r="A271" s="27"/>
       <c r="B271" s="36">
         <v>128</v>
@@ -49980,7 +50121,7 @@
       <c r="EK271" s="27"/>
       <c r="EL271" s="27"/>
     </row>
-    <row r="272" ht="13.5" spans="1:142">
+    <row r="272" spans="1:142" ht="13.5">
       <c r="A272" s="27"/>
       <c r="B272" s="36">
         <v>129</v>
@@ -50178,7 +50319,7 @@
       <c r="EK272" s="27"/>
       <c r="EL272" s="27"/>
     </row>
-    <row r="273" ht="13.5" spans="1:142">
+    <row r="273" spans="1:142" ht="13.5">
       <c r="A273" s="27"/>
       <c r="B273" s="36">
         <v>130</v>
@@ -50376,7 +50517,7 @@
       <c r="EK273" s="27"/>
       <c r="EL273" s="27"/>
     </row>
-    <row r="274" ht="13.5" spans="1:142">
+    <row r="274" spans="1:142" ht="13.5">
       <c r="A274" s="27"/>
       <c r="B274" s="36">
         <v>160</v>
@@ -50574,7 +50715,7 @@
       <c r="EK274" s="27"/>
       <c r="EL274" s="27"/>
     </row>
-    <row r="275" ht="13.5" spans="1:142">
+    <row r="275" spans="1:142" ht="13.5">
       <c r="A275" s="27"/>
       <c r="B275" s="36">
         <v>161</v>
@@ -50772,7 +50913,7 @@
       <c r="EK275" s="27"/>
       <c r="EL275" s="27"/>
     </row>
-    <row r="276" ht="13.5" spans="1:142">
+    <row r="276" spans="1:142" ht="13.5">
       <c r="A276" s="27"/>
       <c r="B276" s="36">
         <v>162</v>
@@ -50970,7 +51111,7 @@
       <c r="EK276" s="27"/>
       <c r="EL276" s="27"/>
     </row>
-    <row r="277" ht="13.5" spans="1:142">
+    <row r="277" spans="1:142" ht="13.5">
       <c r="A277" s="27"/>
       <c r="B277" s="36">
         <v>163</v>
@@ -51168,7 +51309,7 @@
       <c r="EK277" s="27"/>
       <c r="EL277" s="27"/>
     </row>
-    <row r="278" ht="13.5" spans="1:142">
+    <row r="278" spans="1:142" ht="13.5">
       <c r="A278" s="27"/>
       <c r="B278" s="36">
         <v>164</v>
@@ -51366,7 +51507,7 @@
       <c r="EK278" s="27"/>
       <c r="EL278" s="27"/>
     </row>
-    <row r="279" ht="13.5" spans="1:142">
+    <row r="279" spans="1:142" ht="13.5">
       <c r="A279" s="27"/>
       <c r="B279" s="36">
         <v>165</v>
@@ -51564,7 +51705,7 @@
       <c r="EK279" s="27"/>
       <c r="EL279" s="27"/>
     </row>
-    <row r="280" ht="13.5" spans="1:142">
+    <row r="280" spans="1:142" ht="13.5">
       <c r="A280" s="27"/>
       <c r="B280" s="36">
         <v>166</v>
@@ -51762,7 +51903,7 @@
       <c r="EK280" s="27"/>
       <c r="EL280" s="27"/>
     </row>
-    <row r="281" ht="13.5" spans="1:142">
+    <row r="281" spans="1:142" ht="13.5">
       <c r="A281" s="27"/>
       <c r="B281" s="36">
         <v>167</v>
@@ -51960,7 +52101,7 @@
       <c r="EK281" s="27"/>
       <c r="EL281" s="27"/>
     </row>
-    <row r="287" ht="14.25" spans="1:2">
+    <row r="287" spans="1:142" ht="14.25">
       <c r="A287" s="14" t="s">
         <v>59</v>
       </c>
@@ -51968,12 +52109,12 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="1:142">
       <c r="B288" s="17" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="289" spans="2:10">
+    <row r="289" spans="1:11">
       <c r="B289" s="34" t="s">
         <v>63</v>
       </c>
@@ -52002,15 +52143,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="290" spans="2:10">
+    <row r="290" spans="1:11">
       <c r="B290" s="36">
         <v>1</v>
       </c>
       <c r="C290" s="47">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="D290" s="47">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="E290" s="36">
         <v>0</v>
@@ -52031,7 +52172,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="295" ht="14.25" spans="1:2">
+    <row r="295" spans="1:11" ht="14.25">
       <c r="A295" s="14" t="s">
         <v>59</v>
       </c>
@@ -52039,12 +52180,12 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="1:11">
       <c r="B296" s="17" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="297" spans="2:11">
+    <row r="297" spans="1:11">
       <c r="B297" s="34" t="s">
         <v>63</v>
       </c>
@@ -52076,15 +52217,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="298" spans="2:11">
+    <row r="298" spans="1:11">
       <c r="B298" s="36">
         <v>1</v>
       </c>
       <c r="C298" s="47">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D298" s="47">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E298" s="36">
         <v>0</v>
@@ -52108,15 +52249,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="299" spans="2:11">
+    <row r="299" spans="1:11">
       <c r="B299" s="36">
         <v>2</v>
       </c>
       <c r="C299" s="47">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D299" s="47">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E299" s="36">
         <v>0</v>
@@ -52140,15 +52281,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="300" spans="2:11">
+    <row r="300" spans="1:11">
       <c r="B300" s="36">
         <v>3</v>
       </c>
       <c r="C300" s="47">
-        <v>43206.5345486111</v>
+        <v>43206.534548611096</v>
       </c>
       <c r="D300" s="47">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E300" s="36">
         <v>0</v>
@@ -52172,15 +52313,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="301" spans="2:11">
+    <row r="301" spans="1:11">
       <c r="B301" s="36">
         <v>4</v>
       </c>
       <c r="C301" s="47">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="D301" s="47">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E301" s="36">
         <v>0</v>
@@ -52204,11 +52345,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="304" ht="12.75" spans="3:4">
+    <row r="304" spans="1:11" ht="12.75">
       <c r="C304" s="48"/>
       <c r="D304" s="48"/>
     </row>
-    <row r="305" ht="14.25" spans="1:2">
+    <row r="305" spans="1:13" ht="14.25">
       <c r="A305" s="14" t="s">
         <v>59</v>
       </c>
@@ -52216,14 +52357,14 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="306" ht="12.75" spans="2:4">
+    <row r="306" spans="1:13" ht="12.75">
       <c r="B306" s="17" t="s">
         <v>1123</v>
       </c>
       <c r="C306" s="48"/>
       <c r="D306" s="48"/>
     </row>
-    <row r="307" spans="2:13">
+    <row r="307" spans="1:13">
       <c r="B307" s="34" t="s">
         <v>63</v>
       </c>
@@ -52261,15 +52402,15 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="308" spans="2:13">
+    <row r="308" spans="1:13">
       <c r="B308" s="36">
         <v>28</v>
       </c>
       <c r="C308" s="47">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D308" s="47">
-        <v>43229.3985069444</v>
+        <v>43229.398506944402</v>
       </c>
       <c r="E308" s="36">
         <v>0</v>
@@ -52299,15 +52440,15 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="309" spans="2:13">
+    <row r="309" spans="1:13">
       <c r="B309" s="36">
         <v>29</v>
       </c>
       <c r="C309" s="47">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D309" s="47">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E309" s="36">
         <v>0</v>
@@ -52337,15 +52478,15 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="310" spans="2:13">
+    <row r="310" spans="1:13">
       <c r="B310" s="36">
         <v>30</v>
       </c>
       <c r="C310" s="47">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D310" s="47">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E310" s="36">
         <v>0</v>
@@ -52375,15 +52516,15 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="311" spans="2:13">
+    <row r="311" spans="1:13">
       <c r="B311" s="36">
         <v>31</v>
       </c>
       <c r="C311" s="47">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="D311" s="47">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="E311" s="36">
         <v>0</v>
@@ -52413,12 +52554,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="312" spans="2:13">
+    <row r="312" spans="1:13">
       <c r="B312" s="36">
         <v>32</v>
       </c>
       <c r="C312" s="47">
-        <v>43230.2953819444</v>
+        <v>43230.295381944401</v>
       </c>
       <c r="D312" s="47">
         <v>43230.2957523148</v>
@@ -52451,7 +52592,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="313" spans="2:13">
+    <row r="313" spans="1:13">
       <c r="B313" s="36">
         <v>33</v>
       </c>
@@ -52489,15 +52630,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="314" spans="2:13">
+    <row r="314" spans="1:13">
       <c r="B314" s="36">
         <v>34</v>
       </c>
       <c r="C314" s="47">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="D314" s="47">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="E314" s="36">
         <v>0</v>
@@ -52527,15 +52668,15 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="315" spans="2:13">
+    <row r="315" spans="1:13">
       <c r="B315" s="36">
         <v>35</v>
       </c>
       <c r="C315" s="47">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D315" s="47">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E315" s="36">
         <v>0</v>
@@ -52565,15 +52706,15 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="316" spans="2:13">
+    <row r="316" spans="1:13">
       <c r="B316" s="36">
         <v>36</v>
       </c>
       <c r="C316" s="47">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D316" s="47">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E316" s="36">
         <v>0</v>
@@ -52603,15 +52744,15 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="317" spans="2:13">
+    <row r="317" spans="1:13">
       <c r="B317" s="36">
         <v>37</v>
       </c>
       <c r="C317" s="47">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D317" s="47">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E317" s="36">
         <v>0</v>
@@ -52641,15 +52782,15 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="318" spans="2:13">
+    <row r="318" spans="1:13">
       <c r="B318" s="36">
         <v>38</v>
       </c>
       <c r="C318" s="47">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D318" s="47">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E318" s="36">
         <v>0</v>
@@ -52679,15 +52820,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="319" spans="2:13">
+    <row r="319" spans="1:13">
       <c r="B319" s="36">
         <v>39</v>
       </c>
       <c r="C319" s="47">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="D319" s="47">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E319" s="36">
         <v>0</v>
@@ -52717,7 +52858,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="320" spans="2:13">
+    <row r="320" spans="1:13">
       <c r="B320" s="36">
         <v>40</v>
       </c>
@@ -52755,7 +52896,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="321" spans="2:13">
+    <row r="321" spans="2:32">
       <c r="B321" s="36">
         <v>41</v>
       </c>
@@ -52793,15 +52934,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="322" spans="2:13">
+    <row r="322" spans="2:32">
       <c r="B322" s="36">
         <v>42</v>
       </c>
       <c r="C322" s="47">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D322" s="47">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E322" s="36">
         <v>0</v>
@@ -52831,15 +52972,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="323" spans="2:13">
+    <row r="323" spans="2:32">
       <c r="B323" s="36">
         <v>43</v>
       </c>
       <c r="C323" s="47">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D323" s="47">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E323" s="36">
         <v>0</v>
@@ -52869,7 +53010,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="328" ht="14.25" spans="3:4">
+    <row r="328" spans="2:32" ht="14.25">
       <c r="C328" s="14" t="s">
         <v>1142</v>
       </c>
@@ -52877,12 +53018,12 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="329" spans="4:4">
+    <row r="329" spans="2:32">
       <c r="D329" s="17" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="330" ht="12.75" spans="4:32">
+    <row r="330" spans="2:32" ht="12.75">
       <c r="D330" s="49" t="s">
         <v>63</v>
       </c>
@@ -52971,7 +53112,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="331" ht="12.75" spans="4:32">
+    <row r="331" spans="2:32" ht="12.75">
       <c r="D331" s="28">
         <v>390</v>
       </c>
@@ -53060,7 +53201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" ht="12.75" spans="4:32">
+    <row r="332" spans="2:32" ht="12.75">
       <c r="D332" s="28">
         <v>15</v>
       </c>
@@ -53149,7 +53290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" ht="12.75" spans="4:32">
+    <row r="333" spans="2:32" ht="12.75">
       <c r="D333" s="28">
         <v>1</v>
       </c>
@@ -53238,7 +53379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" ht="12.75" spans="4:32">
+    <row r="334" spans="2:32" ht="12.75">
       <c r="D334" s="28">
         <v>2</v>
       </c>
@@ -53327,7 +53468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" ht="12.75" spans="4:32">
+    <row r="335" spans="2:32" ht="12.75">
       <c r="D335" s="28">
         <v>3</v>
       </c>
@@ -53416,7 +53557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" ht="12.75" spans="4:32">
+    <row r="336" spans="2:32" ht="12.75">
       <c r="D336" s="28">
         <v>4</v>
       </c>
@@ -53505,7 +53646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" ht="12.75" spans="4:32">
+    <row r="337" spans="3:32" ht="12.75">
       <c r="D337" s="28">
         <v>5</v>
       </c>
@@ -53594,7 +53735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" ht="12.75" spans="4:32">
+    <row r="338" spans="3:32" ht="12.75">
       <c r="D338" s="28">
         <v>6</v>
       </c>
@@ -53683,7 +53824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" ht="12.75" spans="4:32">
+    <row r="339" spans="3:32" ht="12.75">
       <c r="D339" s="28">
         <v>7</v>
       </c>
@@ -53772,7 +53913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" ht="12.75" spans="4:32">
+    <row r="340" spans="3:32" ht="12.75">
       <c r="D340" s="28">
         <v>8</v>
       </c>
@@ -53861,7 +54002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" ht="12.75" spans="4:32">
+    <row r="341" spans="3:32" ht="12.75">
       <c r="D341" s="28">
         <v>9</v>
       </c>
@@ -53950,7 +54091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" ht="12.75" spans="4:32">
+    <row r="342" spans="3:32" ht="12.75">
       <c r="D342" s="28">
         <v>10</v>
       </c>
@@ -54039,7 +54180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" ht="12.75" spans="4:32">
+    <row r="343" spans="3:32" ht="12.75">
       <c r="D343" s="28">
         <v>12</v>
       </c>
@@ -54128,7 +54269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" ht="12.75" spans="4:32">
+    <row r="344" spans="3:32" ht="12.75">
       <c r="D344" s="28">
         <v>13</v>
       </c>
@@ -54217,7 +54358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" ht="12.75" spans="4:32">
+    <row r="345" spans="3:32" ht="12.75">
       <c r="D345" s="28">
         <v>14</v>
       </c>
@@ -54306,7 +54447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" ht="12.75" spans="4:32">
+    <row r="346" spans="3:32" ht="12.75">
       <c r="D346" s="28">
         <v>11</v>
       </c>
@@ -54395,602 +54536,601 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" ht="12.75" spans="4:5">
+    <row r="347" spans="3:32" ht="12.75">
       <c r="D347" s="48"/>
       <c r="E347" s="48"/>
     </row>
-    <row r="348" ht="12.75" spans="3:4">
+    <row r="348" spans="3:32" ht="12.75">
       <c r="C348" s="48"/>
       <c r="D348" s="48"/>
     </row>
-    <row r="349" ht="12.75" spans="3:4">
+    <row r="349" spans="3:32" ht="12.75">
       <c r="C349" s="48"/>
       <c r="D349" s="48"/>
     </row>
-    <row r="350" ht="12.75" spans="3:4">
+    <row r="350" spans="3:32" ht="12.75">
       <c r="C350" s="48"/>
       <c r="D350" s="48"/>
     </row>
-    <row r="351" ht="12.75" spans="3:4">
+    <row r="351" spans="3:32" ht="12.75">
       <c r="C351" s="48"/>
       <c r="D351" s="48"/>
     </row>
-    <row r="352" ht="12.75" spans="3:4">
+    <row r="352" spans="3:32" ht="12.75">
       <c r="C352" s="48"/>
       <c r="D352" s="48"/>
     </row>
-    <row r="353" ht="12.75" spans="3:4">
+    <row r="353" spans="3:4" ht="12.75">
       <c r="C353" s="48"/>
       <c r="D353" s="48"/>
     </row>
-    <row r="354" ht="12.75" spans="3:4">
+    <row r="354" spans="3:4" ht="12.75">
       <c r="C354" s="48"/>
       <c r="D354" s="48"/>
     </row>
-    <row r="355" ht="12.75" spans="3:4">
+    <row r="355" spans="3:4" ht="12.75">
       <c r="C355" s="48"/>
       <c r="D355" s="48"/>
     </row>
-    <row r="356" ht="12.75" spans="3:4">
+    <row r="356" spans="3:4" ht="12.75">
       <c r="C356" s="48"/>
       <c r="D356" s="48"/>
     </row>
-    <row r="357" ht="12.75" spans="3:4">
+    <row r="357" spans="3:4" ht="12.75">
       <c r="C357" s="48"/>
       <c r="D357" s="48"/>
     </row>
-    <row r="358" ht="12.75" spans="3:4">
+    <row r="358" spans="3:4" ht="12.75">
       <c r="C358" s="48"/>
       <c r="D358" s="48"/>
     </row>
-    <row r="359" ht="12.75" spans="3:4">
+    <row r="359" spans="3:4" ht="12.75">
       <c r="C359" s="48"/>
       <c r="D359" s="48"/>
     </row>
-    <row r="360" ht="12.75" spans="3:4">
+    <row r="360" spans="3:4" ht="12.75">
       <c r="C360" s="48"/>
       <c r="D360" s="48"/>
     </row>
-    <row r="361" ht="12.75" spans="3:4">
+    <row r="361" spans="3:4" ht="12.75">
       <c r="C361" s="48"/>
       <c r="D361" s="48"/>
     </row>
-    <row r="362" ht="12.75" spans="3:4">
+    <row r="362" spans="3:4" ht="12.75">
       <c r="C362" s="48"/>
       <c r="D362" s="48"/>
     </row>
-    <row r="363" ht="12.75" spans="3:4">
+    <row r="363" spans="3:4" ht="12.75">
       <c r="C363" s="48"/>
       <c r="D363" s="48"/>
     </row>
-    <row r="364" ht="12.75" spans="3:4">
+    <row r="364" spans="3:4" ht="12.75">
       <c r="C364" s="48"/>
       <c r="D364" s="48"/>
     </row>
-    <row r="365" ht="12.75" spans="3:4">
+    <row r="365" spans="3:4" ht="12.75">
       <c r="C365" s="48"/>
       <c r="D365" s="48"/>
     </row>
-    <row r="366" ht="12.75" spans="3:4">
+    <row r="366" spans="3:4" ht="12.75">
       <c r="C366" s="48"/>
       <c r="D366" s="48"/>
     </row>
-    <row r="367" ht="12.75" spans="3:4">
+    <row r="367" spans="3:4" ht="12.75">
       <c r="C367" s="48"/>
       <c r="D367" s="48"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="0" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="472" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B201:E201">
-    <cfRule type="cellIs" dxfId="0" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="409" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F201">
-    <cfRule type="cellIs" dxfId="0" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="410" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201">
-    <cfRule type="cellIs" dxfId="0" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="408" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201:L201">
-    <cfRule type="cellIs" dxfId="0" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="404" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M201:EK201">
-    <cfRule type="cellIs" dxfId="0" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="257" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EL201">
-    <cfRule type="cellIs" dxfId="0" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="260" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM201">
-    <cfRule type="cellIs" dxfId="0" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="261" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN201">
-    <cfRule type="cellIs" dxfId="0" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="262" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO201">
-    <cfRule type="cellIs" dxfId="0" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="263" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EP201">
-    <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="264" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ201">
-    <cfRule type="cellIs" dxfId="0" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="265" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="ER201">
-    <cfRule type="cellIs" dxfId="0" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="266" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM229">
-    <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230">
-    <cfRule type="cellIs" dxfId="0" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="414" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:AG230">
-    <cfRule type="cellIs" dxfId="0" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="413" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U231">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="59" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA231">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="58" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U232">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="52" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B260">
-    <cfRule type="cellIs" dxfId="0" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="424" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260:AA260">
-    <cfRule type="cellIs" dxfId="0" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="423" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB260">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="51" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="49" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="47" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="45" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289:J289">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="43" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F290">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="37" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I290">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="36" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J290">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B296">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="46" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="44" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C297:K297">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="42" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="31" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="30" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C307:M307">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L308">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L309">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L310">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C328">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D329">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:F249">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="92" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:F251">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="91" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F298:F301">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F308:F323">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I231:I249">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="89" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I250:I251">
-    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="88" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I298:I299">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I308:I323">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J308:J323">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K298:K301">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K308:K310">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K312:K316">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K318:K323">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L261:L281">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M261:M268">
-    <cfRule type="cellIs" dxfId="0" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="420" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M269:M276">
-    <cfRule type="cellIs" dxfId="0" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="419" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M277:M281">
-    <cfRule type="cellIs" dxfId="0" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="418" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N261:N276">
-    <cfRule type="cellIs" dxfId="0" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="417" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N277:N281">
-    <cfRule type="cellIs" dxfId="0" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="416" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O231:O249">
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="86" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O250:O251">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="85" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P231:P249">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="83" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P250:P251">
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="82" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q231:Q249">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q250:Q251">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="79" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R231:R249">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="77" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R250:R251">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="76" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S231:S251">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T231:T249">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="74" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T250:T251">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="73" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U233:U249">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="62" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U250:U251">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="61" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U261:U281">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="93" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA233:AA249">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="65" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA250:AA251">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="64" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB261:AB281">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="50" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD90 $A324:$XFD327 $A99:$XFD160 A161 C161:XFD161 A348:B367 EQ206:XFD209 $A162:$XFD198 C199:XFD199 E348:XFD367 EM223 ES223:XFD223 $A368:$XFD1048576 E306:XFD306 C305:XFD305 $A302:$XFD303 N307:XFD323 A304:B304 E304:XFD304 A307:A323 L297:XFD301 C296:XFD296 A296:A301 B295:XFD295 $A291:$XFD294 K289:XFD290 C288:XFD288 A288:A290 B287:XFD287 $A285:$XFD286 A257:EL257 AC260:EL260 C258:EL259 A282:EL284 EM252:XFD284 EN229:XFD229 EM224:XFD228 B347:C347 AG330:XFD346 C330:C346 E328:XFD329 F347:XFD347">
-    <cfRule type="cellIs" dxfId="0" priority="475" operator="equal">
+  <conditionalFormatting sqref="A1:XFD90 A324:XFD327 A99:XFD160 A161 C161:XFD161 A348:B367 EQ206:XFD209 A162:XFD198 C199:XFD199 E348:XFD367 EM223 ES223:XFD223 A368:XFD1048576 E306:XFD306 C305:XFD305 A302:XFD303 N307:XFD323 A304:B304 E304:XFD304 A307:A323 L297:XFD301 C296:XFD296 A296:A301 B295:XFD295 A291:XFD294 K289:XFD290 C288:XFD288 A288:A290 B287:XFD287 A285:XFD286 A257:EL257 AC260:EL260 C258:EL259 A282:EL284 EM252:XFD284 EN229:XFD229 EM224:XFD228 B347:C347 AG330:XFD346 C330:C346 E328:XFD329 F347:XFD347">
+    <cfRule type="cellIs" dxfId="27" priority="475" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:BV98">
-    <cfRule type="cellIs" dxfId="0" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="473" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF91:XFD98">
-    <cfRule type="cellIs" dxfId="0" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="474" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:B200">
-    <cfRule type="cellIs" dxfId="0" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="415" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B202:EK222">
-    <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="96" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN223:ER223 EL202:EP222">
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="95" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228:B229">
-    <cfRule type="cellIs" dxfId="0" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="411" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B231:B251 J231:N251 G231:H251 AA232 E231:E251 AG231:AG251">
-    <cfRule type="cellIs" dxfId="0" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="412" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C231:D249">
-    <cfRule type="cellIs" dxfId="0" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="255" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V231:Z249">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="71" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB231:AF249">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="68" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250:D251">
-    <cfRule type="cellIs" dxfId="0" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="254" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V250:Z251">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="70" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB250:AF251">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="67" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258:B259">
-    <cfRule type="cellIs" dxfId="0" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="421" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261:F281 O261:T281 V261:AA281">
-    <cfRule type="cellIs" dxfId="0" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="422" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290:E290 G290:H290">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="41" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B298:E301 G300:J301 J298:J299 G298:H299">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="40" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B305 A306">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L318:M323 B308:E323 G308:H323 M308:M310 K311:M311 L312:M316 K317:M317">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D328 C329">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="9" customWidth="1"/>
@@ -55000,34 +55140,31 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="12" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>1156</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>1157</v>
       </c>
-      <c r="C1" s="11"/>
     </row>
-    <row r="4" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="4" spans="1:4" ht="12" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="C4" s="11"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="C5" s="11"/>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" customFormat="1" ht="14.25">
       <c r="A7" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55039,7 +55176,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" customFormat="1" ht="14.25">
       <c r="A8" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55049,7 +55186,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" customFormat="1" ht="14.25">
       <c r="A9" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55059,7 +55196,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" customFormat="1" ht="14.25">
       <c r="A10" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55071,7 +55208,7 @@
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" customFormat="1" ht="14.25">
       <c r="A11" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55081,7 +55218,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" customFormat="1" ht="14.25">
       <c r="A12" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55091,7 +55228,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" customFormat="1" ht="14.25">
       <c r="A13" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55103,7 +55240,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" customFormat="1" ht="14.25">
       <c r="A14" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55113,7 +55250,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" customFormat="1" ht="14.25">
       <c r="A15" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55123,7 +55260,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" customFormat="1" ht="14.25">
       <c r="A16" s="10" t="s">
         <v>1168</v>
       </c>
@@ -55131,7 +55268,7 @@
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" customFormat="1" ht="14.25">
       <c r="A17" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55141,7 +55278,7 @@
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" customFormat="1" ht="14.25">
       <c r="A18" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55151,43 +55288,37 @@
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" customFormat="1" ht="13.5" spans="1:4">
+    <row r="19" spans="1:4" customFormat="1" ht="13.5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="21" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="21" spans="1:4" ht="12" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>1156</v>
       </c>
       <c r="B21" s="51" t="s">
         <v>1157</v>
       </c>
-      <c r="C21" s="11"/>
     </row>
-    <row r="22" s="9" customFormat="1" spans="3:3">
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="23" spans="1:4" ht="12" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="C23" s="11"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="C24" s="11"/>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:4">
+    <row r="25" spans="1:4" customFormat="1" ht="14.25">
       <c r="A25" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55197,7 +55328,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:4">
+    <row r="26" spans="1:4" customFormat="1" ht="14.25">
       <c r="A26" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55207,13 +55338,13 @@
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" customFormat="1" ht="13.5" spans="1:4">
+    <row r="27" spans="1:4" customFormat="1" ht="13.5">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:4">
+    <row r="28" spans="1:4" customFormat="1" ht="14.25">
       <c r="A28" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55223,7 +55354,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:4">
+    <row r="29" spans="1:4" customFormat="1" ht="14.25">
       <c r="A29" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55235,7 +55366,7 @@
       </c>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:4">
+    <row r="30" spans="1:4" customFormat="1" ht="14.25">
       <c r="A30" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55245,7 +55376,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:4">
+    <row r="31" spans="1:4" customFormat="1" ht="14.25">
       <c r="A31" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55257,7 +55388,7 @@
       </c>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:4">
+    <row r="32" spans="1:4" customFormat="1" ht="14.25">
       <c r="A32" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55269,13 +55400,13 @@
       </c>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" customFormat="1" ht="13.5" spans="1:4">
+    <row r="33" spans="1:4" customFormat="1" ht="13.5">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:4">
+    <row r="34" spans="1:4" customFormat="1" ht="14.25">
       <c r="A34" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55285,7 +55416,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:4">
+    <row r="35" spans="1:4" customFormat="1" ht="14.25">
       <c r="A35" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55295,7 +55426,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:4">
+    <row r="36" spans="1:4" customFormat="1" ht="14.25">
       <c r="A36" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55305,7 +55436,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:4">
+    <row r="37" spans="1:4" customFormat="1" ht="14.25">
       <c r="A37" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55315,25 +55446,25 @@
       <c r="C37" s="11"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" customFormat="1" ht="13.5" spans="1:4">
+    <row r="38" spans="1:4" customFormat="1" ht="13.5">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" customFormat="1" ht="13.5" spans="1:4">
+    <row r="39" spans="1:4" customFormat="1" ht="13.5">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" customFormat="1" ht="13.5" spans="1:4">
+    <row r="40" spans="1:4" customFormat="1" ht="13.5">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:4">
+    <row r="41" spans="1:4" customFormat="1" ht="14.25">
       <c r="A41" s="10" t="s">
         <v>1156</v>
       </c>
@@ -55343,7 +55474,7 @@
       <c r="C41" s="11"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:4">
+    <row r="42" spans="1:4" customFormat="1" ht="14.25">
       <c r="A42" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55353,7 +55484,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:4">
+    <row r="43" spans="1:4" customFormat="1" ht="14.25">
       <c r="A43" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55363,7 +55494,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:4">
+    <row r="44" spans="1:4" customFormat="1" ht="14.25">
       <c r="A44" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55373,7 +55504,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:4">
+    <row r="45" spans="1:4" customFormat="1" ht="14.25">
       <c r="A45" s="10" t="s">
         <v>1188</v>
       </c>
@@ -55383,7 +55514,7 @@
       <c r="C45" s="11"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:4">
+    <row r="46" spans="1:4" customFormat="1" ht="14.25">
       <c r="A46" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55395,7 +55526,7 @@
       </c>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:4">
+    <row r="47" spans="1:4" customFormat="1" ht="14.25">
       <c r="A47" s="10" t="s">
         <v>1190</v>
       </c>
@@ -55403,7 +55534,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:4">
+    <row r="48" spans="1:4" customFormat="1" ht="14.25">
       <c r="A48" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55413,13 +55544,13 @@
       <c r="C48" s="11"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:4">
+    <row r="49" spans="1:4" customFormat="1" ht="14.25">
       <c r="A49" s="10"/>
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:4">
+    <row r="50" spans="1:4" customFormat="1" ht="14.25">
       <c r="A50" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55429,7 +55560,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:4">
+    <row r="51" spans="1:4" customFormat="1" ht="14.25">
       <c r="A51" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55439,7 +55570,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:4">
+    <row r="52" spans="1:4" customFormat="1" ht="14.25">
       <c r="A52" s="10" t="s">
         <v>1188</v>
       </c>
@@ -55449,12 +55580,12 @@
       <c r="C52" s="11"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:4">
+    <row r="53" spans="1:4" customFormat="1" ht="14.25">
       <c r="A53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:4">
+    <row r="54" spans="1:4" customFormat="1" ht="14.25">
       <c r="A54" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55464,7 +55595,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:2">
+    <row r="55" spans="1:4" customFormat="1" ht="14.25">
       <c r="A55" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55472,7 +55603,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:4">
+    <row r="56" spans="1:4" customFormat="1" ht="14.25">
       <c r="A56" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55482,7 +55613,7 @@
       <c r="C56" s="11"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:3">
+    <row r="57" spans="1:4" customFormat="1" ht="14.25">
       <c r="A57" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55493,7 +55624,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="14.25" spans="1:3">
+    <row r="58" spans="1:4" customFormat="1" ht="14.25">
       <c r="A58" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55504,7 +55635,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="14.25" spans="1:3">
+    <row r="59" spans="1:4" customFormat="1" ht="14.25">
       <c r="A59" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55515,7 +55646,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:3">
+    <row r="60" spans="1:4" customFormat="1" ht="14.25">
       <c r="A60" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55526,7 +55657,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:3">
+    <row r="61" spans="1:4" customFormat="1" ht="14.25">
       <c r="A61" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55537,7 +55668,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:3">
+    <row r="62" spans="1:4" customFormat="1" ht="14.25">
       <c r="A62" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55548,7 +55679,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:3">
+    <row r="63" spans="1:4" customFormat="1" ht="14.25">
       <c r="A63" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55559,8 +55690,8 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="64" customFormat="1" ht="13.5"/>
-    <row r="65" customFormat="1" ht="14.25" spans="1:2">
+    <row r="64" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="65" spans="1:3" customFormat="1" ht="14.25">
       <c r="A65" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55568,7 +55699,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:2">
+    <row r="66" spans="1:3" customFormat="1" ht="14.25">
       <c r="A66" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55576,8 +55707,8 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="67" customFormat="1" ht="13.5"/>
-    <row r="68" ht="14.25" spans="1:2">
+    <row r="67" spans="1:3" customFormat="1" ht="13.5"/>
+    <row r="68" spans="1:3" ht="14.25">
       <c r="A68" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55585,7 +55716,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="69" customFormat="1" ht="14.25" spans="1:3">
+    <row r="69" spans="1:3" customFormat="1" ht="14.25">
       <c r="A69" s="10" t="s">
         <v>1188</v>
       </c>
@@ -55594,7 +55725,7 @@
       </c>
       <c r="C69" s="11"/>
     </row>
-    <row r="70" customFormat="1" ht="14.25" spans="1:3">
+    <row r="70" spans="1:3" customFormat="1" ht="14.25">
       <c r="A70" s="10" t="s">
         <v>1161</v>
       </c>
@@ -55605,14 +55736,14 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" customFormat="1" ht="14.25" spans="1:3">
+    <row r="71" spans="1:3" customFormat="1" ht="14.25">
       <c r="A71" s="10" t="s">
         <v>1190</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="11"/>
     </row>
-    <row r="72" customFormat="1" ht="14.25" spans="1:3">
+    <row r="72" spans="1:3" customFormat="1" ht="14.25">
       <c r="A72" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55621,27 +55752,27 @@
       </c>
       <c r="C72" s="11"/>
     </row>
-    <row r="73" customFormat="1" ht="13.5" spans="1:3">
+    <row r="73" spans="1:3" customFormat="1" ht="13.5">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="11"/>
     </row>
-    <row r="74" customFormat="1" ht="13.5" spans="1:3">
+    <row r="74" spans="1:3" customFormat="1" ht="13.5">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="11"/>
     </row>
-    <row r="75" customFormat="1" ht="13.5" spans="1:3">
+    <row r="75" spans="1:3" customFormat="1" ht="13.5">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="11"/>
     </row>
-    <row r="76" customFormat="1" ht="13.5" spans="1:3">
+    <row r="76" spans="1:3" customFormat="1" ht="13.5">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="11"/>
     </row>
-    <row r="77" customFormat="1" ht="14.25" spans="1:3">
+    <row r="77" spans="1:3" customFormat="1" ht="14.25">
       <c r="A77" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55650,13 +55781,13 @@
       </c>
       <c r="C77" s="11"/>
     </row>
-    <row r="78" customFormat="1" ht="13.5" spans="2:3">
+    <row r="78" spans="1:3" customFormat="1" ht="13.5">
       <c r="B78" s="9" t="s">
         <v>1203</v>
       </c>
       <c r="C78" s="11"/>
     </row>
-    <row r="79" customFormat="1" ht="14.25" spans="1:3">
+    <row r="79" spans="1:3" customFormat="1" ht="14.25">
       <c r="A79" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55665,12 +55796,12 @@
       </c>
       <c r="C79" s="11"/>
     </row>
-    <row r="80" customFormat="1" ht="13.5" spans="1:3">
+    <row r="80" spans="1:3" customFormat="1" ht="13.5">
       <c r="A80" s="9"/>
       <c r="B80" s="12"/>
       <c r="C80" s="11"/>
     </row>
-    <row r="81" customFormat="1" ht="14.25" spans="1:3">
+    <row r="81" spans="1:4" customFormat="1" ht="14.25">
       <c r="A81" s="10" t="s">
         <v>1188</v>
       </c>
@@ -55679,12 +55810,12 @@
       </c>
       <c r="C81" s="11"/>
     </row>
-    <row r="82" customFormat="1" ht="13.5"/>
-    <row r="83" customFormat="1" ht="13.5" spans="3:4">
+    <row r="82" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="83" spans="1:4" customFormat="1" ht="13.5">
       <c r="C83" s="11"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" customFormat="1" ht="14.25" spans="1:4">
+    <row r="84" spans="1:4" customFormat="1" ht="14.25">
       <c r="A84" s="10" t="s">
         <v>1158</v>
       </c>
@@ -55694,17 +55825,17 @@
       <c r="C84" s="11"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" customFormat="1" ht="13.5" spans="1:4">
+    <row r="85" spans="1:4" customFormat="1" ht="13.5">
       <c r="A85" s="9"/>
       <c r="C85" s="11"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" customFormat="1" ht="13.5" spans="1:4">
+    <row r="86" spans="1:4" customFormat="1" ht="13.5">
       <c r="A86" s="9"/>
       <c r="C86" s="11"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" customFormat="1" ht="14.25" spans="1:2">
+    <row r="87" spans="1:4" customFormat="1" ht="14.25">
       <c r="A87" s="10" t="s">
         <v>1164</v>
       </c>
@@ -55712,23 +55843,22 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="88" customFormat="1" ht="13.5"/>
-    <row r="89" customFormat="1" ht="13.5"/>
+    <row r="88" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="89" spans="1:4" customFormat="1" ht="13.5"/>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId2" display="mht@shequchina.cn"/>
-    <hyperlink ref="C59" r:id="rId2" display="mht@shequchina.cn"/>
+    <hyperlink ref="C32" r:id="rId1"/>
+    <hyperlink ref="C59" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -55752,7 +55882,7 @@
     <col min="74" max="74" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:239">
+    <row r="1" spans="1:239" s="9" customFormat="1">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -56234,7 +56364,7 @@
       <c r="ID2" s="13"/>
       <c r="IE2" s="13"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:239">
+    <row r="3" spans="1:239" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="14" t="s">
         <v>59</v>
       </c>
@@ -56479,7 +56609,7 @@
       <c r="ID3" s="13"/>
       <c r="IE3" s="13"/>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:239">
+    <row r="4" spans="1:239" s="9" customFormat="1">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
         <v>1206</v>
@@ -61450,7 +61580,7 @@
       <c r="ID22" s="13"/>
       <c r="IE22" s="13"/>
     </row>
-    <row r="23" ht="14.25" spans="1:239">
+    <row r="23" spans="1:239" ht="14.25">
       <c r="A23" s="14" t="s">
         <v>59</v>
       </c>
@@ -61938,7 +62068,7 @@
       <c r="ID24" s="13"/>
       <c r="IE24" s="13"/>
     </row>
-    <row r="25" spans="1:239">
+    <row r="25" spans="1:239" ht="14.25">
       <c r="A25" s="13"/>
       <c r="B25" s="18" t="s">
         <v>63</v>
@@ -62281,16 +62411,16 @@
       <c r="ID25" s="13"/>
       <c r="IE25" s="13"/>
     </row>
-    <row r="26" spans="1:239">
+    <row r="26" spans="1:239" ht="14.25">
       <c r="A26" s="13"/>
       <c r="B26" s="20" t="s">
         <v>1273</v>
       </c>
       <c r="C26" s="21">
-        <v>43263.2788310185</v>
+        <v>43263.278831018499</v>
       </c>
       <c r="D26" s="21">
-        <v>43263.2788310185</v>
+        <v>43263.278831018499</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>83</v>
@@ -63106,7 +63236,7 @@
       <c r="ID28" s="13"/>
       <c r="IE28" s="13"/>
     </row>
-    <row r="29" ht="14.25" spans="1:239">
+    <row r="29" spans="1:239" ht="14.25">
       <c r="A29" s="14" t="s">
         <v>59</v>
       </c>
@@ -64029,10 +64159,10 @@
         <v>875</v>
       </c>
       <c r="C32" s="21">
-        <v>43263.2788310185</v>
+        <v>43263.278831018499</v>
       </c>
       <c r="D32" s="21">
-        <v>43263.2788310185</v>
+        <v>43263.278831018499</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>83</v>
@@ -64445,28 +64575,29 @@
       <c r="IE32" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ26:AV26">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F19">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD5 A6:A19 O6:XFD19 $A20:$XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:XFD5 A6:A19 O6:XFD19 A20:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF3:XFD4">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="61" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64476,27 +64607,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M18">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1156</v>
       </c>
@@ -64506,25 +64635,25 @@
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" customFormat="1" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" customFormat="1" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" customFormat="1" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64534,7 +64663,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A6" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64543,7 +64672,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="7" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A7" s="10" t="s">
         <v>1164</v>
       </c>
@@ -64552,36 +64681,35 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="12">
       <c r="C8" s="11"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="9" spans="1:4" s="9" customFormat="1" ht="12">
       <c r="C9" s="11"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="12">
       <c r="C10" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1156</v>
       </c>
@@ -64591,25 +64719,25 @@
       <c r="C1" s="11"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" customFormat="1" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" customFormat="1" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="11"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" customFormat="1" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="11"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64619,7 +64747,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A6" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64628,10 +64756,10 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="7" spans="1:4" s="9" customFormat="1" ht="12">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A8" s="10" t="s">
         <v>1320</v>
       </c>
@@ -64640,7 +64768,7 @@
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A9" s="10" t="s">
         <v>1161</v>
       </c>
@@ -64651,11 +64779,11 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A10" s="10"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A11" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64664,7 +64792,7 @@
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A12" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64673,11 +64801,11 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="14" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A14" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64686,7 +64814,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="14.25">
       <c r="A15" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64695,10 +64823,10 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="16" spans="1:4" s="9" customFormat="1" ht="12">
       <c r="C16" s="11"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A17" s="10" t="s">
         <v>1161</v>
       </c>
@@ -64709,10 +64837,10 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="18" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C18" s="11"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A19" s="10" t="s">
         <v>1158</v>
       </c>
@@ -64721,10 +64849,10 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="20" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C20" s="11"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="21" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A21" s="10" t="s">
         <v>1164</v>
       </c>
@@ -64733,28 +64861,27 @@
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="22" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C22" s="11"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="23" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C23" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
@@ -64789,7 +64916,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:8">
       <c r="B5" s="8" t="s">
         <v>1337</v>
       </c>
@@ -64806,37 +64933,37 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:8">
       <c r="B6" s="8" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:8">
       <c r="B7" s="8" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:8">
       <c r="B8" s="8" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:8">
       <c r="B9" s="8" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:8">
       <c r="B10" s="8" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:8">
       <c r="B11" s="8" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:8">
       <c r="B12" s="8" t="s">
         <v>1348</v>
       </c>
@@ -64850,7 +64977,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:8">
       <c r="B13" s="8" t="s">
         <v>1351</v>
       </c>
@@ -64864,13 +64991,13 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:8">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:8">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:8">
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
@@ -64910,8 +65037,8 @@
       <c r="B28" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>